--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV118-001 until DPLKINV118-003 - Jenis Porto - Reksadana Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV118-001 until DPLKINV118-003 - Jenis Porto - Reksadana Approve Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E6784-94B8-4769-86A8-982CA4F5CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17784B3-DAC1-4607-85E3-4566E7A19ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV118-001" sheetId="2" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Dikembalikan Ke Register</t>
   </si>
   <si>
-    <t>R07</t>
-  </si>
-  <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
@@ -169,6 +166,9 @@
 Kode Jenis Porto : R07;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : DATA APPROVAL</t>
+  </si>
+  <si>
+    <t>R91</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -678,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
@@ -765,7 +765,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>31</v>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A642AC7-410D-4669-A021-AF890F33F047}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -1009,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>37</v>
